--- a/Docs/技能设计.xlsx
+++ b/Docs/技能设计.xlsx
@@ -505,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机获得以下效果其中之一，提升5点法术攻击力，提升5点法术防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回复100%法术伤害的生命值，提升3点法术伤害，最多叠加三次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,6 +775,10 @@
   </si>
   <si>
     <t>如果神圣之力大于5点，启动一个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得以下效果之一，提升5点法术攻击力，提升5点法术防御力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1342,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -1611,7 +1611,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
@@ -1646,7 +1646,7 @@
         <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>82</v>
@@ -1750,7 +1750,7 @@
         <v>85</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1793,7 +1793,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>90</v>
@@ -1802,7 +1802,7 @@
         <v>91</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1958,12 +1958,12 @@
         <v>121</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1">
         <v>4</v>
@@ -1972,24 +1972,24 @@
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -1998,24 +1998,24 @@
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="1">
         <v>4</v>
@@ -2024,24 +2024,24 @@
         <v>10</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -2050,24 +2050,24 @@
         <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
@@ -2076,24 +2076,24 @@
         <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2102,24 +2102,24 @@
         <v>10</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -2128,24 +2128,24 @@
         <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -2154,24 +2154,24 @@
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -2180,24 +2180,24 @@
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -2206,24 +2206,24 @@
         <v>10</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -2232,24 +2232,24 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -2258,24 +2258,24 @@
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -2284,19 +2284,19 @@
         <v>10</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/技能设计.xlsx
+++ b/Docs/技能设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="1" r:id="rId1"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
